--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:19:20+00:00</t>
+    <t>2023-07-04T17:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:45:33+00:00</t>
+    <t>2023-07-04T19:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T19:15:23+00:00</t>
+    <t>2023-07-05T07:22:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T07:22:55+00:00</t>
+    <t>2023-07-05T09:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T09:33:26+00:00</t>
+    <t>2023-07-05T09:53:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
